--- a/HutInfo.xlsx
+++ b/HutInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab62753a27e4e959/Projekte/SAC Scraper/FindFreeHut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_108515955BB0510E13B93D11595ED87656CF8465" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD13AB47-73E6-41D4-B20D-8C66EEDB15B2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_108515955BB0510E13B93D11595ED87656CF8465" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA1C6C3B-6AB7-4D2F-9DFE-4EE649FABE3B}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3878,6 +3878,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4167,11 +4171,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="R172" sqref="R172"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="45.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/HutInfo.xlsx
+++ b/HutInfo.xlsx
@@ -1921,7 +1921,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>1387</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>2051</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>1621</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.327</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>2203</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>2434</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>2298</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1736</t>
+          <t>1736h</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6446,7 +6446,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.550</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.759</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1585</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>2714</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>2257</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>2215</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.241</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -12671,7 +12671,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
